--- a/database/sidis/expdata/9044.xlsx
+++ b/database/sidis/expdata/9044.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fafd12/GIT/jam3d/database/sidis/expdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/physicsstudentresearch/Documents/jam3d/database/sidis/expdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2A538A-165C-814A-8E4A-CE89658F3807}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B0F01B-B70A-304E-8841-43E9AF1955B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="2560" windowWidth="28040" windowHeight="17440" xr2:uid="{1A7CF6F4-7980-C642-B3B7-B02861994D82}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{1A7CF6F4-7980-C642-B3B7-B02861994D82}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,14 +75,14 @@
     <t>compass</t>
   </si>
   <si>
-    <t>pi-</t>
+    <t>h-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -439,12 +439,12 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -485,7 +485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -526,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.0999999999999999E-2</v>
       </c>
@@ -567,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.7999999999999999E-2</v>
       </c>
@@ -608,7 +608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2.8000000000000001E-2</v>
       </c>
@@ -649,7 +649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -690,7 +690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>7.2999999999999995E-2</v>
       </c>
@@ -731,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>0.11899999999999999</v>
       </c>
@@ -772,7 +772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0.17399999999999999</v>
       </c>
@@ -813,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>0.25</v>
       </c>
@@ -854,7 +854,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>0.377</v>
       </c>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0.63900000000000001</v>
       </c>
